--- a/state_results/Rivers/MangawheroatRaupiuRoad_cab14b25e7.xlsx
+++ b/state_results/Rivers/MangawheroatRaupiuRoad_cab14b25e7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U226"/>
+  <dimension ref="A1:U245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,10 +570,10 @@
         <v>0.45</v>
       </c>
       <c r="G2" t="n">
-        <v>0.703062778511785</v>
+        <v>0.672357844685938</v>
       </c>
       <c r="H2" t="n">
-        <v>3.85761354321228</v>
+        <v>2.50977917021312</v>
       </c>
       <c r="I2" t="n">
         <v>2.276</v>
@@ -651,7 +651,7 @@
         <v>0.008</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0099140368008056</v>
+        <v>0.009915087164910999</v>
       </c>
       <c r="H3" t="n">
         <v>0.033</v>
@@ -732,7 +732,7 @@
         <v>0.008</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0099140368008056</v>
+        <v>0.009915087164910999</v>
       </c>
       <c r="H4" t="n">
         <v>0.033</v>
@@ -1153,7 +1153,7 @@
         <v>0.00317</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0061378701182483</v>
+        <v>0.0061637477694179</v>
       </c>
       <c r="H9" t="n">
         <v>0.0454236572456614</v>
@@ -1234,7 +1234,7 @@
         <v>0.00317</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0061378701182483</v>
+        <v>0.0061637477694179</v>
       </c>
       <c r="H10" t="n">
         <v>0.0454236572456614</v>
@@ -1315,7 +1315,7 @@
         <v>0.2625</v>
       </c>
       <c r="G11" t="n">
-        <v>0.288344413419275</v>
+        <v>0.288407065636461</v>
       </c>
       <c r="H11" t="n">
         <v>0.91</v>
@@ -1396,7 +1396,7 @@
         <v>0.2625</v>
       </c>
       <c r="G12" t="n">
-        <v>0.288344413419275</v>
+        <v>0.288407065636461</v>
       </c>
       <c r="H12" t="n">
         <v>0.91</v>
@@ -1473,7 +1473,7 @@
         <v>0.222</v>
       </c>
       <c r="G13" t="n">
-        <v>0.286665802742178</v>
+        <v>0.286683139282359</v>
       </c>
       <c r="H13" t="n">
         <v>1.053</v>
@@ -1550,7 +1550,7 @@
         <v>0.222</v>
       </c>
       <c r="G14" t="n">
-        <v>0.286665802742178</v>
+        <v>0.286683139282359</v>
       </c>
       <c r="H14" t="n">
         <v>1.053</v>
@@ -1939,10 +1939,10 @@
         <v>0.5</v>
       </c>
       <c r="G19" t="n">
-        <v>0.66476191289578</v>
+        <v>0.633342910841424</v>
       </c>
       <c r="H19" t="n">
-        <v>3.85761354321228</v>
+        <v>2.50977917021312</v>
       </c>
       <c r="I19" t="n">
         <v>2.292</v>
@@ -2020,7 +2020,7 @@
         <v>0.007</v>
       </c>
       <c r="G20" t="n">
-        <v>0.008350309508367</v>
+        <v>0.0083515227622577</v>
       </c>
       <c r="H20" t="n">
         <v>0.024</v>
@@ -2101,7 +2101,7 @@
         <v>0.007</v>
       </c>
       <c r="G21" t="n">
-        <v>0.008350309508367</v>
+        <v>0.0083515227622577</v>
       </c>
       <c r="H21" t="n">
         <v>0.024</v>
@@ -2182,7 +2182,7 @@
         <v>150</v>
       </c>
       <c r="G22" t="n">
-        <v>904.7504157990591</v>
+        <v>904.747462949452</v>
       </c>
       <c r="H22" t="n">
         <v>19900</v>
@@ -2267,7 +2267,7 @@
         <v>150</v>
       </c>
       <c r="G23" t="n">
-        <v>904.7504157990591</v>
+        <v>904.747462949452</v>
       </c>
       <c r="H23" t="n">
         <v>19900</v>
@@ -2352,7 +2352,7 @@
         <v>150</v>
       </c>
       <c r="G24" t="n">
-        <v>904.7504157990591</v>
+        <v>904.747462949452</v>
       </c>
       <c r="H24" t="n">
         <v>19900</v>
@@ -2437,7 +2437,7 @@
         <v>150</v>
       </c>
       <c r="G25" t="n">
-        <v>904.7504157990591</v>
+        <v>904.747462949452</v>
       </c>
       <c r="H25" t="n">
         <v>19900</v>
@@ -2522,7 +2522,7 @@
         <v>0.00642</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0087118682528256</v>
+        <v>0.0087279978716421</v>
       </c>
       <c r="H26" t="n">
         <v>0.0454236572456614</v>
@@ -2603,7 +2603,7 @@
         <v>0.00642</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0087118682528256</v>
+        <v>0.0087279978716421</v>
       </c>
       <c r="H27" t="n">
         <v>0.0454236572456614</v>
@@ -2684,7 +2684,7 @@
         <v>0.2475</v>
       </c>
       <c r="G28" t="n">
-        <v>0.295010314629379</v>
+        <v>0.295066314505919</v>
       </c>
       <c r="H28" t="n">
         <v>1.1</v>
@@ -2765,7 +2765,7 @@
         <v>0.2475</v>
       </c>
       <c r="G29" t="n">
-        <v>0.295010314629379</v>
+        <v>0.295066314505919</v>
       </c>
       <c r="H29" t="n">
         <v>1.1</v>
@@ -3308,10 +3308,10 @@
         <v>0.5</v>
       </c>
       <c r="G36" t="n">
-        <v>0.666649110810056</v>
+        <v>0.6337751017125151</v>
       </c>
       <c r="H36" t="n">
-        <v>3.85761354321228</v>
+        <v>2.50977917021312</v>
       </c>
       <c r="I36" t="n">
         <v>1.895</v>
@@ -3389,7 +3389,7 @@
         <v>0.008</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0084215660035821</v>
+        <v>0.0084226584531528</v>
       </c>
       <c r="H37" t="n">
         <v>0.019</v>
@@ -3470,7 +3470,7 @@
         <v>0.008</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0084215660035821</v>
+        <v>0.0084226584531528</v>
       </c>
       <c r="H38" t="n">
         <v>0.019</v>
@@ -3551,7 +3551,7 @@
         <v>134</v>
       </c>
       <c r="G39" t="n">
-        <v>707.987703934652</v>
+        <v>707.984751085045</v>
       </c>
       <c r="H39" t="n">
         <v>10462</v>
@@ -3636,7 +3636,7 @@
         <v>134</v>
       </c>
       <c r="G40" t="n">
-        <v>707.987703934652</v>
+        <v>707.984751085045</v>
       </c>
       <c r="H40" t="n">
         <v>10462</v>
@@ -3721,7 +3721,7 @@
         <v>134</v>
       </c>
       <c r="G41" t="n">
-        <v>707.987703934652</v>
+        <v>707.984751085045</v>
       </c>
       <c r="H41" t="n">
         <v>10462</v>
@@ -3806,7 +3806,7 @@
         <v>134</v>
       </c>
       <c r="G42" t="n">
-        <v>707.987703934652</v>
+        <v>707.984751085045</v>
       </c>
       <c r="H42" t="n">
         <v>10462</v>
@@ -3891,7 +3891,7 @@
         <v>0.0068</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0092918097375627</v>
+        <v>0.0093031223102257</v>
       </c>
       <c r="H43" t="n">
         <v>0.0454236572456614</v>
@@ -3972,7 +3972,7 @@
         <v>0.0068</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0092918097375627</v>
+        <v>0.0093031223102257</v>
       </c>
       <c r="H44" t="n">
         <v>0.0454236572456614</v>
@@ -4053,7 +4053,7 @@
         <v>0.24</v>
       </c>
       <c r="G45" t="n">
-        <v>0.286751277248473</v>
+        <v>0.286796991433403</v>
       </c>
       <c r="H45" t="n">
         <v>1.1</v>
@@ -4134,7 +4134,7 @@
         <v>0.24</v>
       </c>
       <c r="G46" t="n">
-        <v>0.286751277248473</v>
+        <v>0.286796991433403</v>
       </c>
       <c r="H46" t="n">
         <v>1.1</v>
@@ -4677,13 +4677,13 @@
         <v>0.5</v>
       </c>
       <c r="G53" t="n">
-        <v>0.827270082400286</v>
+        <v>0.795925096981701</v>
       </c>
       <c r="H53" t="n">
         <v>4.15</v>
       </c>
       <c r="I53" t="n">
-        <v>3.04016</v>
+        <v>2.54136</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -4694,7 +4694,7 @@
         <v>1.238</v>
       </c>
       <c r="N53" t="n">
-        <v>2.506</v>
+        <v>2.50059</v>
       </c>
       <c r="O53" t="n">
         <v>1799862</v>
@@ -4758,7 +4758,7 @@
         <v>0.008</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0096748243841619</v>
+        <v>0.009675799969178001</v>
       </c>
       <c r="H54" t="n">
         <v>0.02</v>
@@ -4839,7 +4839,7 @@
         <v>0.008</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0096748243841619</v>
+        <v>0.009675799969178001</v>
       </c>
       <c r="H55" t="n">
         <v>0.02</v>
@@ -4920,7 +4920,7 @@
         <v>120</v>
       </c>
       <c r="G56" t="n">
-        <v>842.072449697364</v>
+        <v>842.069496847757</v>
       </c>
       <c r="H56" t="n">
         <v>20140</v>
@@ -5005,7 +5005,7 @@
         <v>120</v>
       </c>
       <c r="G57" t="n">
-        <v>842.072449697364</v>
+        <v>842.069496847757</v>
       </c>
       <c r="H57" t="n">
         <v>20140</v>
@@ -5090,7 +5090,7 @@
         <v>120</v>
       </c>
       <c r="G58" t="n">
-        <v>842.072449697364</v>
+        <v>842.069496847757</v>
       </c>
       <c r="H58" t="n">
         <v>20140</v>
@@ -5175,7 +5175,7 @@
         <v>120</v>
       </c>
       <c r="G59" t="n">
-        <v>842.072449697364</v>
+        <v>842.069496847757</v>
       </c>
       <c r="H59" t="n">
         <v>20140</v>
@@ -5260,7 +5260,7 @@
         <v>0.0068</v>
       </c>
       <c r="G60" t="n">
-        <v>0.009880554754320901</v>
+        <v>0.009888645451020301</v>
       </c>
       <c r="H60" t="n">
         <v>0.08244888541885979</v>
@@ -5341,7 +5341,7 @@
         <v>0.0068</v>
       </c>
       <c r="G61" t="n">
-        <v>0.009880554754320901</v>
+        <v>0.009888645451020301</v>
       </c>
       <c r="H61" t="n">
         <v>0.08244888541885979</v>
@@ -5422,7 +5422,7 @@
         <v>0.212</v>
       </c>
       <c r="G62" t="n">
-        <v>0.276376484494494</v>
+        <v>0.276414450512487</v>
       </c>
       <c r="H62" t="n">
         <v>1.1</v>
@@ -5433,7 +5433,7 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
-        <v>0.0115</v>
+        <v>0.01186</v>
       </c>
       <c r="M62" t="n">
         <v>0.53128</v>
@@ -5503,7 +5503,7 @@
         <v>0.212</v>
       </c>
       <c r="G63" t="n">
-        <v>0.276376484494494</v>
+        <v>0.276414450512487</v>
       </c>
       <c r="H63" t="n">
         <v>1.1</v>
@@ -5514,7 +5514,7 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
-        <v>0.0115</v>
+        <v>0.01186</v>
       </c>
       <c r="M63" t="n">
         <v>0.53128</v>
@@ -6127,7 +6127,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G71" t="n">
-        <v>0.009924710817706701</v>
+        <v>0.009925351736433099</v>
       </c>
       <c r="H71" t="n">
         <v>0.02</v>
@@ -6208,7 +6208,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G72" t="n">
-        <v>0.009924710817706701</v>
+        <v>0.009925351736433099</v>
       </c>
       <c r="H72" t="n">
         <v>0.02</v>
@@ -6289,7 +6289,7 @@
         <v>130</v>
       </c>
       <c r="G73" t="n">
-        <v>755.7673649516011</v>
+        <v>755.764412101994</v>
       </c>
       <c r="H73" t="n">
         <v>20140</v>
@@ -6374,7 +6374,7 @@
         <v>130</v>
       </c>
       <c r="G74" t="n">
-        <v>755.7673649516011</v>
+        <v>755.764412101994</v>
       </c>
       <c r="H74" t="n">
         <v>20140</v>
@@ -6459,7 +6459,7 @@
         <v>130</v>
       </c>
       <c r="G75" t="n">
-        <v>755.7673649516011</v>
+        <v>755.764412101994</v>
       </c>
       <c r="H75" t="n">
         <v>20140</v>
@@ -6544,7 +6544,7 @@
         <v>130</v>
       </c>
       <c r="G76" t="n">
-        <v>755.7673649516011</v>
+        <v>755.764412101994</v>
       </c>
       <c r="H76" t="n">
         <v>20140</v>
@@ -6629,7 +6629,7 @@
         <v>0.00503</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0088810305463633</v>
+        <v>0.0088994858143594</v>
       </c>
       <c r="H77" t="n">
         <v>0.08244888541885979</v>
@@ -6640,7 +6640,7 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>0.00285</v>
+        <v>0.00295</v>
       </c>
       <c r="M77" t="n">
         <v>0.01616</v>
@@ -6710,7 +6710,7 @@
         <v>0.00503</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0088810305463633</v>
+        <v>0.0088994858143594</v>
       </c>
       <c r="H78" t="n">
         <v>0.08244888541885979</v>
@@ -6721,7 +6721,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
-        <v>0.00285</v>
+        <v>0.00295</v>
       </c>
       <c r="M78" t="n">
         <v>0.01616</v>
@@ -6791,7 +6791,7 @@
         <v>0.23005</v>
       </c>
       <c r="G79" t="n">
-        <v>0.283960278361588</v>
+        <v>0.283980530086655</v>
       </c>
       <c r="H79" t="n">
         <v>1.1</v>
@@ -6802,7 +6802,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
-        <v>0.00464</v>
+        <v>0.00485</v>
       </c>
       <c r="M79" t="n">
         <v>0.57607</v>
@@ -6872,7 +6872,7 @@
         <v>0.23005</v>
       </c>
       <c r="G80" t="n">
-        <v>0.283960278361588</v>
+        <v>0.283980530086655</v>
       </c>
       <c r="H80" t="n">
         <v>1.1</v>
@@ -6883,7 +6883,7 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
-        <v>0.00464</v>
+        <v>0.00485</v>
       </c>
       <c r="M80" t="n">
         <v>0.57607</v>
@@ -6949,7 +6949,7 @@
         <v>0.2465</v>
       </c>
       <c r="G81" t="n">
-        <v>0.300090762920658</v>
+        <v>0.300099798978135</v>
       </c>
       <c r="H81" t="n">
         <v>1.123</v>
@@ -7026,7 +7026,7 @@
         <v>0.2465</v>
       </c>
       <c r="G82" t="n">
-        <v>0.300090762920658</v>
+        <v>0.300099798978135</v>
       </c>
       <c r="H82" t="n">
         <v>1.123</v>
@@ -7573,7 +7573,7 @@
         <v>0.01</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0103222563403571</v>
+        <v>0.0103225958907195</v>
       </c>
       <c r="H89" t="n">
         <v>0.02</v>
@@ -7654,7 +7654,7 @@
         <v>0.01</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0103222563403571</v>
+        <v>0.0103225958907195</v>
       </c>
       <c r="H90" t="n">
         <v>0.02</v>
@@ -7735,7 +7735,7 @@
         <v>147</v>
       </c>
       <c r="G91" t="n">
-        <v>812.224992070245</v>
+        <v>812.222039220638</v>
       </c>
       <c r="H91" t="n">
         <v>20140</v>
@@ -7820,7 +7820,7 @@
         <v>147</v>
       </c>
       <c r="G92" t="n">
-        <v>812.224992070245</v>
+        <v>812.222039220638</v>
       </c>
       <c r="H92" t="n">
         <v>20140</v>
@@ -7905,7 +7905,7 @@
         <v>147</v>
       </c>
       <c r="G93" t="n">
-        <v>812.224992070245</v>
+        <v>812.222039220638</v>
       </c>
       <c r="H93" t="n">
         <v>20140</v>
@@ -7990,7 +7990,7 @@
         <v>147</v>
       </c>
       <c r="G94" t="n">
-        <v>812.224992070245</v>
+        <v>812.222039220638</v>
       </c>
       <c r="H94" t="n">
         <v>20140</v>
@@ -8152,7 +8152,7 @@
         <v>0.00348</v>
       </c>
       <c r="G96" t="n">
-        <v>0.008262858604268701</v>
+        <v>0.0082928041198595</v>
       </c>
       <c r="H96" t="n">
         <v>0.08244888541885979</v>
@@ -8163,7 +8163,7 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
-        <v>0.0018</v>
+        <v>0.00188</v>
       </c>
       <c r="M96" t="n">
         <v>0.01549</v>
@@ -8233,7 +8233,7 @@
         <v>0.00348</v>
       </c>
       <c r="G97" t="n">
-        <v>0.008262858604268701</v>
+        <v>0.0082928041198595</v>
       </c>
       <c r="H97" t="n">
         <v>0.08244888541885979</v>
@@ -8244,7 +8244,7 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
-        <v>0.0018</v>
+        <v>0.00188</v>
       </c>
       <c r="M97" t="n">
         <v>0.01549</v>
@@ -8314,7 +8314,7 @@
         <v>0.24565</v>
       </c>
       <c r="G98" t="n">
-        <v>0.28911655613567</v>
+        <v>0.289133731171063</v>
       </c>
       <c r="H98" t="n">
         <v>1.1</v>
@@ -8325,7 +8325,7 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
-        <v>0.00322</v>
+        <v>0.00339</v>
       </c>
       <c r="M98" t="n">
         <v>0.57775</v>
@@ -8395,7 +8395,7 @@
         <v>0.24565</v>
       </c>
       <c r="G99" t="n">
-        <v>0.28911655613567</v>
+        <v>0.289133731171063</v>
       </c>
       <c r="H99" t="n">
         <v>1.1</v>
@@ -8406,7 +8406,7 @@
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
-        <v>0.00322</v>
+        <v>0.00339</v>
       </c>
       <c r="M99" t="n">
         <v>0.57775</v>
@@ -8549,7 +8549,7 @@
         <v>0.265</v>
       </c>
       <c r="G101" t="n">
-        <v>0.305907429587325</v>
+        <v>0.305916465644802</v>
       </c>
       <c r="H101" t="n">
         <v>1.123</v>
@@ -8626,7 +8626,7 @@
         <v>0.265</v>
       </c>
       <c r="G102" t="n">
-        <v>0.305907429587325</v>
+        <v>0.305916465644802</v>
       </c>
       <c r="H102" t="n">
         <v>1.123</v>
@@ -9173,7 +9173,7 @@
         <v>0.011</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0117778430408633</v>
+        <v>0.0117779009653674</v>
       </c>
       <c r="H109" t="n">
         <v>0.023</v>
@@ -9254,7 +9254,7 @@
         <v>0.011</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0117778430408633</v>
+        <v>0.0117779009653674</v>
       </c>
       <c r="H110" t="n">
         <v>0.023</v>
@@ -9749,10 +9749,10 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0.00261</v>
+        <v>0.00277</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0060886336958591</v>
+        <v>0.0061398952193411</v>
       </c>
       <c r="H116" t="n">
         <v>0.08244888541885979</v>
@@ -9763,10 +9763,10 @@
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
-        <v>0.00151</v>
+        <v>0.00155</v>
       </c>
       <c r="M116" t="n">
-        <v>0.0091</v>
+        <v>0.009129999999999999</v>
       </c>
       <c r="N116" t="n">
         <v>0.01425</v>
@@ -9830,10 +9830,10 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0.00261</v>
+        <v>0.00277</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0060886336958591</v>
+        <v>0.0061398952193411</v>
       </c>
       <c r="H117" t="n">
         <v>0.08244888541885979</v>
@@ -9844,10 +9844,10 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
-        <v>0.00151</v>
+        <v>0.00155</v>
       </c>
       <c r="M117" t="n">
-        <v>0.0091</v>
+        <v>0.009129999999999999</v>
       </c>
       <c r="N117" t="n">
         <v>0.01425</v>
@@ -9914,7 +9914,7 @@
         <v>0.268</v>
       </c>
       <c r="G118" t="n">
-        <v>0.300590333493375</v>
+        <v>0.300602980501111</v>
       </c>
       <c r="H118" t="n">
         <v>1.034</v>
@@ -9925,7 +9925,7 @@
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
-        <v>0.00372</v>
+        <v>0.00389</v>
       </c>
       <c r="M118" t="n">
         <v>0.57995</v>
@@ -9995,7 +9995,7 @@
         <v>0.268</v>
       </c>
       <c r="G119" t="n">
-        <v>0.300590333493375</v>
+        <v>0.300602980501111</v>
       </c>
       <c r="H119" t="n">
         <v>1.034</v>
@@ -10006,7 +10006,7 @@
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
-        <v>0.00372</v>
+        <v>0.00389</v>
       </c>
       <c r="M119" t="n">
         <v>0.57995</v>
@@ -10149,7 +10149,7 @@
         <v>0.285</v>
       </c>
       <c r="G121" t="n">
-        <v>0.316924096253991</v>
+        <v>0.316933132311469</v>
       </c>
       <c r="H121" t="n">
         <v>1.046</v>
@@ -10226,7 +10226,7 @@
         <v>0.285</v>
       </c>
       <c r="G122" t="n">
-        <v>0.316924096253991</v>
+        <v>0.316933132311469</v>
       </c>
       <c r="H122" t="n">
         <v>1.046</v>
@@ -10692,7 +10692,7 @@
         <v>0.875</v>
       </c>
       <c r="G128" t="n">
-        <v>0.872194791908839</v>
+        <v>0.872005933208018</v>
       </c>
       <c r="H128" t="n">
         <v>4.15</v>
@@ -10773,7 +10773,7 @@
         <v>0.011</v>
       </c>
       <c r="G129" t="n">
-        <v>0.01194450970753</v>
+        <v>0.011944567632034</v>
       </c>
       <c r="H129" t="n">
         <v>0.023</v>
@@ -10854,7 +10854,7 @@
         <v>0.011</v>
       </c>
       <c r="G130" t="n">
-        <v>0.01194450970753</v>
+        <v>0.011944567632034</v>
       </c>
       <c r="H130" t="n">
         <v>0.023</v>
@@ -11349,10 +11349,10 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0.00318</v>
+        <v>0.00335</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0063028223564585</v>
+        <v>0.0063681083218012</v>
       </c>
       <c r="H136" t="n">
         <v>0.08244888541885979</v>
@@ -11363,7 +11363,7 @@
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
-        <v>0.00241</v>
+        <v>0.00261</v>
       </c>
       <c r="M136" t="n">
         <v>0.01001</v>
@@ -11430,10 +11430,10 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0.00318</v>
+        <v>0.00335</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0063028223564585</v>
+        <v>0.0063681083218012</v>
       </c>
       <c r="H137" t="n">
         <v>0.08244888541885979</v>
@@ -11444,7 +11444,7 @@
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
-        <v>0.00241</v>
+        <v>0.00261</v>
       </c>
       <c r="M137" t="n">
         <v>0.01001</v>
@@ -11514,7 +11514,7 @@
         <v>0.268</v>
       </c>
       <c r="G138" t="n">
-        <v>0.29741751778099</v>
+        <v>0.297447081149243</v>
       </c>
       <c r="H138" t="n">
         <v>0.927</v>
@@ -11525,7 +11525,7 @@
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
-        <v>0.00464</v>
+        <v>0.00485</v>
       </c>
       <c r="M138" t="n">
         <v>0.5873</v>
@@ -11595,7 +11595,7 @@
         <v>0.268</v>
       </c>
       <c r="G139" t="n">
-        <v>0.29741751778099</v>
+        <v>0.297447081149243</v>
       </c>
       <c r="H139" t="n">
         <v>0.927</v>
@@ -11606,7 +11606,7 @@
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
-        <v>0.00464</v>
+        <v>0.00485</v>
       </c>
       <c r="M139" t="n">
         <v>0.5873</v>
@@ -11749,7 +11749,7 @@
         <v>0.285</v>
       </c>
       <c r="G141" t="n">
-        <v>0.314024096253991</v>
+        <v>0.314033132311469</v>
       </c>
       <c r="H141" t="n">
         <v>0.9350000000000001</v>
@@ -11826,7 +11826,7 @@
         <v>0.285</v>
       </c>
       <c r="G142" t="n">
-        <v>0.314024096253991</v>
+        <v>0.314033132311469</v>
       </c>
       <c r="H142" t="n">
         <v>0.9350000000000001</v>
@@ -12292,7 +12292,7 @@
         <v>0.95</v>
       </c>
       <c r="G148" t="n">
-        <v>0.794498324952232</v>
+        <v>0.794274277070069</v>
       </c>
       <c r="H148" t="n">
         <v>2.08</v>
@@ -12373,7 +12373,7 @@
         <v>0.011</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0116278430408633</v>
+        <v>0.0116279009653674</v>
       </c>
       <c r="H149" t="n">
         <v>0.023</v>
@@ -12454,7 +12454,7 @@
         <v>0.011</v>
       </c>
       <c r="G150" t="n">
-        <v>0.0116278430408633</v>
+        <v>0.0116279009653674</v>
       </c>
       <c r="H150" t="n">
         <v>0.023</v>
@@ -12535,7 +12535,7 @@
         <v>150</v>
       </c>
       <c r="G151" t="n">
-        <v>699.339224649876</v>
+        <v>699.33481475121</v>
       </c>
       <c r="H151" t="n">
         <v>7900</v>
@@ -12620,7 +12620,7 @@
         <v>150</v>
       </c>
       <c r="G152" t="n">
-        <v>699.339224649876</v>
+        <v>699.33481475121</v>
       </c>
       <c r="H152" t="n">
         <v>7900</v>
@@ -12705,7 +12705,7 @@
         <v>150</v>
       </c>
       <c r="G153" t="n">
-        <v>699.339224649876</v>
+        <v>699.33481475121</v>
       </c>
       <c r="H153" t="n">
         <v>7900</v>
@@ -12790,7 +12790,7 @@
         <v>150</v>
       </c>
       <c r="G154" t="n">
-        <v>699.339224649876</v>
+        <v>699.33481475121</v>
       </c>
       <c r="H154" t="n">
         <v>7900</v>
@@ -12949,10 +12949,10 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0.00331</v>
+        <v>0.00342</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0055260199846358</v>
+        <v>0.0056075213421794</v>
       </c>
       <c r="H156" t="n">
         <v>0.0295952779758791</v>
@@ -13030,10 +13030,10 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0.00331</v>
+        <v>0.00342</v>
       </c>
       <c r="G157" t="n">
-        <v>0.0055260199846358</v>
+        <v>0.0056075213421794</v>
       </c>
       <c r="H157" t="n">
         <v>0.0295952779758791</v>
@@ -13114,7 +13114,7 @@
         <v>0.2705</v>
       </c>
       <c r="G158" t="n">
-        <v>0.295266607616318</v>
+        <v>0.295317055096198</v>
       </c>
       <c r="H158" t="n">
         <v>0.927</v>
@@ -13125,7 +13125,7 @@
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
-        <v>0.00688</v>
+        <v>0.00718</v>
       </c>
       <c r="M158" t="n">
         <v>0.5873</v>
@@ -13195,7 +13195,7 @@
         <v>0.2705</v>
       </c>
       <c r="G159" t="n">
-        <v>0.295266607616318</v>
+        <v>0.295317055096198</v>
       </c>
       <c r="H159" t="n">
         <v>0.927</v>
@@ -13206,7 +13206,7 @@
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
-        <v>0.00688</v>
+        <v>0.00718</v>
       </c>
       <c r="M159" t="n">
         <v>0.5873</v>
@@ -13349,7 +13349,7 @@
         <v>0.285</v>
       </c>
       <c r="G161" t="n">
-        <v>0.311007429587325</v>
+        <v>0.311016465644802</v>
       </c>
       <c r="H161" t="n">
         <v>0.9350000000000001</v>
@@ -13426,7 +13426,7 @@
         <v>0.285</v>
       </c>
       <c r="G162" t="n">
-        <v>0.311007429587325</v>
+        <v>0.311016465644802</v>
       </c>
       <c r="H162" t="n">
         <v>0.9350000000000001</v>
@@ -13892,7 +13892,7 @@
         <v>0.825</v>
       </c>
       <c r="G168" t="n">
-        <v>0.74961805694459</v>
+        <v>0.74935816140128</v>
       </c>
       <c r="H168" t="n">
         <v>1.79</v>
@@ -13973,7 +13973,7 @@
         <v>0.011</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0108927217364712</v>
+        <v>0.0108927806427465</v>
       </c>
       <c r="H169" t="n">
         <v>0.023</v>
@@ -14054,7 +14054,7 @@
         <v>0.011</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0108927217364712</v>
+        <v>0.0108927806427465</v>
       </c>
       <c r="H170" t="n">
         <v>0.023</v>
@@ -14135,7 +14135,7 @@
         <v>140</v>
       </c>
       <c r="G171" t="n">
-        <v>783.118885666825</v>
+        <v>783.114475768159</v>
       </c>
       <c r="H171" t="n">
         <v>7900</v>
@@ -14220,7 +14220,7 @@
         <v>140</v>
       </c>
       <c r="G172" t="n">
-        <v>783.118885666825</v>
+        <v>783.114475768159</v>
       </c>
       <c r="H172" t="n">
         <v>7900</v>
@@ -14305,7 +14305,7 @@
         <v>140</v>
       </c>
       <c r="G173" t="n">
-        <v>783.118885666825</v>
+        <v>783.114475768159</v>
       </c>
       <c r="H173" t="n">
         <v>7900</v>
@@ -14390,7 +14390,7 @@
         <v>140</v>
       </c>
       <c r="G174" t="n">
-        <v>783.118885666825</v>
+        <v>783.114475768159</v>
       </c>
       <c r="H174" t="n">
         <v>7900</v>
@@ -14552,7 +14552,7 @@
         <v>0.0035</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0057319962245952</v>
+        <v>0.0058057343597153</v>
       </c>
       <c r="H176" t="n">
         <v>0.0295952779758791</v>
@@ -14633,7 +14633,7 @@
         <v>0.0035</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0057319962245952</v>
+        <v>0.0058057343597153</v>
       </c>
       <c r="H177" t="n">
         <v>0.0295952779758791</v>
@@ -14714,7 +14714,7 @@
         <v>0.2745</v>
       </c>
       <c r="G178" t="n">
-        <v>0.290970373820687</v>
+        <v>0.291049253504397</v>
       </c>
       <c r="H178" t="n">
         <v>0.927</v>
@@ -14725,7 +14725,7 @@
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
-        <v>0.008869999999999999</v>
+        <v>0.00961</v>
       </c>
       <c r="M178" t="n">
         <v>0.57956</v>
@@ -14795,7 +14795,7 @@
         <v>0.2745</v>
       </c>
       <c r="G179" t="n">
-        <v>0.290970373820687</v>
+        <v>0.291049253504397</v>
       </c>
       <c r="H179" t="n">
         <v>0.927</v>
@@ -14806,7 +14806,7 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
-        <v>0.008869999999999999</v>
+        <v>0.00961</v>
       </c>
       <c r="M179" t="n">
         <v>0.57956</v>
@@ -15492,7 +15492,7 @@
         <v>0.75</v>
       </c>
       <c r="G188" t="n">
-        <v>0.699510329416141</v>
+        <v>0.6991771300016409</v>
       </c>
       <c r="H188" t="n">
         <v>1.7</v>
@@ -15735,7 +15735,7 @@
         <v>150</v>
       </c>
       <c r="G191" t="n">
-        <v>759.525665327842</v>
+        <v>759.521255429176</v>
       </c>
       <c r="H191" t="n">
         <v>7900</v>
@@ -15820,7 +15820,7 @@
         <v>150</v>
       </c>
       <c r="G192" t="n">
-        <v>759.525665327842</v>
+        <v>759.521255429176</v>
       </c>
       <c r="H192" t="n">
         <v>7900</v>
@@ -15905,7 +15905,7 @@
         <v>150</v>
       </c>
       <c r="G193" t="n">
-        <v>759.525665327842</v>
+        <v>759.521255429176</v>
       </c>
       <c r="H193" t="n">
         <v>7900</v>
@@ -15990,7 +15990,7 @@
         <v>150</v>
       </c>
       <c r="G194" t="n">
-        <v>759.525665327842</v>
+        <v>759.521255429176</v>
       </c>
       <c r="H194" t="n">
         <v>7900</v>
@@ -16149,10 +16149,10 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>0.00357</v>
+        <v>0.00372</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0061127778645542</v>
+        <v>0.0061675047175486</v>
       </c>
       <c r="H196" t="n">
         <v>0.0295952779758791</v>
@@ -16230,10 +16230,10 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>0.00357</v>
+        <v>0.00372</v>
       </c>
       <c r="G197" t="n">
-        <v>0.0061127778645542</v>
+        <v>0.0061675047175486</v>
       </c>
       <c r="H197" t="n">
         <v>0.0295952779758791</v>
@@ -16314,7 +16314,7 @@
         <v>0.2745</v>
       </c>
       <c r="G198" t="n">
-        <v>0.281230065623554</v>
+        <v>0.281324128582303</v>
       </c>
       <c r="H198" t="n">
         <v>0.788</v>
@@ -16325,7 +16325,7 @@
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
-        <v>0.01553</v>
+        <v>0.01597</v>
       </c>
       <c r="M198" t="n">
         <v>0.56948</v>
@@ -16395,7 +16395,7 @@
         <v>0.2745</v>
       </c>
       <c r="G199" t="n">
-        <v>0.281230065623554</v>
+        <v>0.281324128582303</v>
       </c>
       <c r="H199" t="n">
         <v>0.788</v>
@@ -16406,7 +16406,7 @@
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
-        <v>0.01553</v>
+        <v>0.01597</v>
       </c>
       <c r="M199" t="n">
         <v>0.56948</v>
@@ -17092,7 +17092,7 @@
         <v>0.41</v>
       </c>
       <c r="G208" t="n">
-        <v>0.610311509920842</v>
+        <v>0.609940230573258</v>
       </c>
       <c r="H208" t="n">
         <v>1.7</v>
@@ -17335,7 +17335,7 @@
         <v>150</v>
       </c>
       <c r="G211" t="n">
-        <v>778.491713233499</v>
+        <v>778.4748199765889</v>
       </c>
       <c r="H211" t="n">
         <v>7900</v>
@@ -17420,7 +17420,7 @@
         <v>150</v>
       </c>
       <c r="G212" t="n">
-        <v>778.491713233499</v>
+        <v>778.4748199765889</v>
       </c>
       <c r="H212" t="n">
         <v>7900</v>
@@ -17505,7 +17505,7 @@
         <v>150</v>
       </c>
       <c r="G213" t="n">
-        <v>778.491713233499</v>
+        <v>778.4748199765889</v>
       </c>
       <c r="H213" t="n">
         <v>7900</v>
@@ -17590,7 +17590,7 @@
         <v>150</v>
       </c>
       <c r="G214" t="n">
-        <v>778.491713233499</v>
+        <v>778.4748199765889</v>
       </c>
       <c r="H214" t="n">
         <v>7900</v>
@@ -17749,10 +17749,10 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>0.00511</v>
+        <v>0.0052</v>
       </c>
       <c r="G216" t="n">
-        <v>0.0070654638681996</v>
+        <v>0.0070983092099959</v>
       </c>
       <c r="H216" t="n">
         <v>0.0295952779758791</v>
@@ -17830,10 +17830,10 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>0.00511</v>
+        <v>0.0052</v>
       </c>
       <c r="G217" t="n">
-        <v>0.0070654638681996</v>
+        <v>0.0070983092099959</v>
       </c>
       <c r="H217" t="n">
         <v>0.0295952779758791</v>
@@ -17914,7 +17914,7 @@
         <v>0.277</v>
       </c>
       <c r="G218" t="n">
-        <v>0.288608867445518</v>
+        <v>0.288719066511666</v>
       </c>
       <c r="H218" t="n">
         <v>0.923</v>
@@ -17925,7 +17925,7 @@
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
-        <v>0.01599</v>
+        <v>0.01645</v>
       </c>
       <c r="M218" t="n">
         <v>0.5950800000000001</v>
@@ -17995,7 +17995,7 @@
         <v>0.277</v>
       </c>
       <c r="G219" t="n">
-        <v>0.288608867445518</v>
+        <v>0.288719066511666</v>
       </c>
       <c r="H219" t="n">
         <v>0.923</v>
@@ -18006,7 +18006,7 @@
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
-        <v>0.01599</v>
+        <v>0.01645</v>
       </c>
       <c r="M219" t="n">
         <v>0.5950800000000001</v>
@@ -18585,6 +18585,1525 @@
         </is>
       </c>
     </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Mangawhero at Raupiu Road</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F227" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0.2492</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0.29125</v>
+      </c>
+      <c r="N227" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O227" t="n">
+        <v>1799862</v>
+      </c>
+      <c r="P227" t="n">
+        <v>5602910</v>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T227" t="inlineStr">
+        <is>
+          <t>Whau_3e</t>
+        </is>
+      </c>
+      <c r="U227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Mangawhero at Raupiu Road</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F228" t="n">
+        <v>0.0115</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0.0130689655172414</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0.0256</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0.01864</v>
+      </c>
+      <c r="N228" t="n">
+        <v>0.02372</v>
+      </c>
+      <c r="O228" t="n">
+        <v>1799862</v>
+      </c>
+      <c r="P228" t="n">
+        <v>5602910</v>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T228" t="inlineStr">
+        <is>
+          <t>Whau_3e</t>
+        </is>
+      </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Mangawhero at Raupiu Road</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F229" t="n">
+        <v>0.0115</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0.0130689655172414</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0.0256</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0.01864</v>
+      </c>
+      <c r="N229" t="n">
+        <v>0.02372</v>
+      </c>
+      <c r="O229" t="n">
+        <v>1799862</v>
+      </c>
+      <c r="P229" t="n">
+        <v>5602910</v>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T229" t="inlineStr">
+        <is>
+          <t>Whau_3e</t>
+        </is>
+      </c>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Mangawhero at Raupiu Road</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F230" t="n">
+        <v>140</v>
+      </c>
+      <c r="G230" t="n">
+        <v>649.930076817873</v>
+      </c>
+      <c r="H230" t="n">
+        <v>4813</v>
+      </c>
+      <c r="I230" t="n">
+        <v>3560</v>
+      </c>
+      <c r="J230" t="n">
+        <v>24.5614035087719</v>
+      </c>
+      <c r="K230" t="n">
+        <v>36.8421052631579</v>
+      </c>
+      <c r="L230" t="n">
+        <v>48</v>
+      </c>
+      <c r="M230" t="n">
+        <v>1162</v>
+      </c>
+      <c r="N230" t="n">
+        <v>3069.68</v>
+      </c>
+      <c r="O230" t="n">
+        <v>1799862</v>
+      </c>
+      <c r="P230" t="n">
+        <v>5602910</v>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T230" t="inlineStr">
+        <is>
+          <t>Whau_3e</t>
+        </is>
+      </c>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Mangawhero at Raupiu Road</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F231" t="n">
+        <v>140</v>
+      </c>
+      <c r="G231" t="n">
+        <v>649.930076817873</v>
+      </c>
+      <c r="H231" t="n">
+        <v>4813</v>
+      </c>
+      <c r="I231" t="n">
+        <v>3560</v>
+      </c>
+      <c r="J231" t="n">
+        <v>24.5614035087719</v>
+      </c>
+      <c r="K231" t="n">
+        <v>36.8421052631579</v>
+      </c>
+      <c r="L231" t="n">
+        <v>48</v>
+      </c>
+      <c r="M231" t="n">
+        <v>1162</v>
+      </c>
+      <c r="N231" t="n">
+        <v>3069.68</v>
+      </c>
+      <c r="O231" t="n">
+        <v>1799862</v>
+      </c>
+      <c r="P231" t="n">
+        <v>5602910</v>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T231" t="inlineStr">
+        <is>
+          <t>Whau_3e</t>
+        </is>
+      </c>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Mangawhero at Raupiu Road</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F232" t="n">
+        <v>140</v>
+      </c>
+      <c r="G232" t="n">
+        <v>649.930076817873</v>
+      </c>
+      <c r="H232" t="n">
+        <v>4813</v>
+      </c>
+      <c r="I232" t="n">
+        <v>3560</v>
+      </c>
+      <c r="J232" t="n">
+        <v>24.5614035087719</v>
+      </c>
+      <c r="K232" t="n">
+        <v>36.8421052631579</v>
+      </c>
+      <c r="L232" t="n">
+        <v>48</v>
+      </c>
+      <c r="M232" t="n">
+        <v>1162</v>
+      </c>
+      <c r="N232" t="n">
+        <v>3069.68</v>
+      </c>
+      <c r="O232" t="n">
+        <v>1799862</v>
+      </c>
+      <c r="P232" t="n">
+        <v>5602910</v>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T232" t="inlineStr">
+        <is>
+          <t>Whau_3e</t>
+        </is>
+      </c>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Mangawhero at Raupiu Road</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F233" t="n">
+        <v>140</v>
+      </c>
+      <c r="G233" t="n">
+        <v>649.930076817873</v>
+      </c>
+      <c r="H233" t="n">
+        <v>4813</v>
+      </c>
+      <c r="I233" t="n">
+        <v>3560</v>
+      </c>
+      <c r="J233" t="n">
+        <v>24.5614035087719</v>
+      </c>
+      <c r="K233" t="n">
+        <v>36.8421052631579</v>
+      </c>
+      <c r="L233" t="n">
+        <v>48</v>
+      </c>
+      <c r="M233" t="n">
+        <v>1162</v>
+      </c>
+      <c r="N233" t="n">
+        <v>3069.68</v>
+      </c>
+      <c r="O233" t="n">
+        <v>1799862</v>
+      </c>
+      <c r="P233" t="n">
+        <v>5602910</v>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T233" t="inlineStr">
+        <is>
+          <t>Whau_3e</t>
+        </is>
+      </c>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Mangawhero at Raupiu Road</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F234" t="n">
+        <v>84</v>
+      </c>
+      <c r="G234" t="n">
+        <v>85.372</v>
+      </c>
+      <c r="H234" t="n">
+        <v>93</v>
+      </c>
+      <c r="I234" t="n">
+        <v>93</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="M234" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="N234" t="n">
+        <v>93</v>
+      </c>
+      <c r="O234" t="n">
+        <v>1799862</v>
+      </c>
+      <c r="P234" t="n">
+        <v>5602910</v>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T234" t="inlineStr">
+        <is>
+          <t>Whau_3e</t>
+        </is>
+      </c>
+      <c r="U234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Mangawhero at Raupiu Road</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F235" t="n">
+        <v>0.00644</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0.0068596694565455</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0.0192841241274872</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0.0181</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>0.00664</v>
+      </c>
+      <c r="M235" t="n">
+        <v>0.01176</v>
+      </c>
+      <c r="N235" t="n">
+        <v>0.0156</v>
+      </c>
+      <c r="O235" t="n">
+        <v>1799862</v>
+      </c>
+      <c r="P235" t="n">
+        <v>5602910</v>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T235" t="inlineStr">
+        <is>
+          <t>Whau_3e</t>
+        </is>
+      </c>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Mangawhero at Raupiu Road</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F236" t="n">
+        <v>0.00644</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0.0068596694565455</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0.0192841241274872</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0.0181</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>0.00664</v>
+      </c>
+      <c r="M236" t="n">
+        <v>0.01176</v>
+      </c>
+      <c r="N236" t="n">
+        <v>0.0156</v>
+      </c>
+      <c r="O236" t="n">
+        <v>1799862</v>
+      </c>
+      <c r="P236" t="n">
+        <v>5602910</v>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T236" t="inlineStr">
+        <is>
+          <t>Whau_3e</t>
+        </is>
+      </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Mangawhero at Raupiu Road</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F237" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0.297695786294538</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0.923</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0.76315</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="M237" t="n">
+        <v>0.54406</v>
+      </c>
+      <c r="N237" t="n">
+        <v>0.67622</v>
+      </c>
+      <c r="O237" t="n">
+        <v>1799862</v>
+      </c>
+      <c r="P237" t="n">
+        <v>5602910</v>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T237" t="inlineStr">
+        <is>
+          <t>Whau_3e</t>
+        </is>
+      </c>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Mangawhero at Raupiu Road</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F238" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0.297695786294538</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0.923</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0.76315</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="M238" t="n">
+        <v>0.54406</v>
+      </c>
+      <c r="N238" t="n">
+        <v>0.67622</v>
+      </c>
+      <c r="O238" t="n">
+        <v>1799862</v>
+      </c>
+      <c r="P238" t="n">
+        <v>5602910</v>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T238" t="inlineStr">
+        <is>
+          <t>Whau_3e</t>
+        </is>
+      </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Mangawhero at Raupiu Road</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F239" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="G239" t="n">
+        <v>3.6152</v>
+      </c>
+      <c r="H239" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I239" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>4.1335</v>
+      </c>
+      <c r="M239" t="n">
+        <v>4.26945</v>
+      </c>
+      <c r="N239" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="O239" t="n">
+        <v>1799862</v>
+      </c>
+      <c r="P239" t="n">
+        <v>5602910</v>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S239" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T239" t="inlineStr">
+        <is>
+          <t>Whau_3e</t>
+        </is>
+      </c>
+      <c r="U239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Mangawhero at Raupiu Road</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr"/>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F240" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0.313206896551724</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0.951</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0.7658</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0.5574</v>
+      </c>
+      <c r="N240" t="n">
+        <v>0.68904</v>
+      </c>
+      <c r="O240" t="n">
+        <v>1799862</v>
+      </c>
+      <c r="P240" t="n">
+        <v>5602910</v>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T240" t="inlineStr">
+        <is>
+          <t>Whau_3e</t>
+        </is>
+      </c>
+      <c r="U240" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Mangawhero at Raupiu Road</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr"/>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F241" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0.313206896551724</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0.951</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0.7658</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="M241" t="n">
+        <v>0.5574</v>
+      </c>
+      <c r="N241" t="n">
+        <v>0.68904</v>
+      </c>
+      <c r="O241" t="n">
+        <v>1799862</v>
+      </c>
+      <c r="P241" t="n">
+        <v>5602910</v>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S241" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T241" t="inlineStr">
+        <is>
+          <t>Whau_3e</t>
+        </is>
+      </c>
+      <c r="U241" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Mangawhero at Raupiu Road</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr"/>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F242" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0.604561403508772</v>
+      </c>
+      <c r="H242" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="I242" t="n">
+        <v>1.3545</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0.8981</v>
+      </c>
+      <c r="N242" t="n">
+        <v>1.0852</v>
+      </c>
+      <c r="O242" t="n">
+        <v>1799862</v>
+      </c>
+      <c r="P242" t="n">
+        <v>5602910</v>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S242" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T242" t="inlineStr">
+        <is>
+          <t>Whau_3e</t>
+        </is>
+      </c>
+      <c r="U242" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Mangawhero at Raupiu Road</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr"/>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F243" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G243" t="n">
+        <v>0.604561403508772</v>
+      </c>
+      <c r="H243" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="I243" t="n">
+        <v>1.3545</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0.8981</v>
+      </c>
+      <c r="N243" t="n">
+        <v>1.0852</v>
+      </c>
+      <c r="O243" t="n">
+        <v>1799862</v>
+      </c>
+      <c r="P243" t="n">
+        <v>5602910</v>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S243" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T243" t="inlineStr">
+        <is>
+          <t>Whau_3e</t>
+        </is>
+      </c>
+      <c r="U243" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Mangawhero at Raupiu Road</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr"/>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F244" t="n">
+        <v>0.0335</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0.0704827586206897</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0.881</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0.3066</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0.0752</v>
+      </c>
+      <c r="N244" t="n">
+        <v>0.15632</v>
+      </c>
+      <c r="O244" t="n">
+        <v>1799862</v>
+      </c>
+      <c r="P244" t="n">
+        <v>5602910</v>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S244" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T244" t="inlineStr">
+        <is>
+          <t>Whau_3e</t>
+        </is>
+      </c>
+      <c r="U244" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Mangawhero at Raupiu Road</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr"/>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F245" t="n">
+        <v>0.0335</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0.0704827586206897</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0.881</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0.3066</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0.0752</v>
+      </c>
+      <c r="N245" t="n">
+        <v>0.15632</v>
+      </c>
+      <c r="O245" t="n">
+        <v>1799862</v>
+      </c>
+      <c r="P245" t="n">
+        <v>5602910</v>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S245" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T245" t="inlineStr">
+        <is>
+          <t>Whau_3e</t>
+        </is>
+      </c>
+      <c r="U245" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/MangawheroatRaupiuRoad_cab14b25e7.xlsx
+++ b/state_results/Rivers/MangawheroatRaupiuRoad_cab14b25e7.xlsx
@@ -570,10 +570,10 @@
         <v>0.45</v>
       </c>
       <c r="G2" t="n">
-        <v>0.672357844685938</v>
+        <v>0.680342045919105</v>
       </c>
       <c r="H2" t="n">
-        <v>2.50977917021312</v>
+        <v>2.86108402447249</v>
       </c>
       <c r="I2" t="n">
         <v>2.276</v>
@@ -1939,10 +1939,10 @@
         <v>0.5</v>
       </c>
       <c r="G19" t="n">
-        <v>0.633342910841424</v>
+        <v>0.6415127911730381</v>
       </c>
       <c r="H19" t="n">
-        <v>2.50977917021312</v>
+        <v>2.86108402447249</v>
       </c>
       <c r="I19" t="n">
         <v>2.292</v>
@@ -3308,10 +3308,10 @@
         <v>0.5</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6337751017125151</v>
+        <v>0.642343512792012</v>
       </c>
       <c r="H36" t="n">
-        <v>2.50977917021312</v>
+        <v>2.86108402447249</v>
       </c>
       <c r="I36" t="n">
         <v>1.895</v>
@@ -4677,13 +4677,13 @@
         <v>0.5</v>
       </c>
       <c r="G53" t="n">
-        <v>0.795925096981701</v>
+        <v>0.804094977313314</v>
       </c>
       <c r="H53" t="n">
         <v>4.15</v>
       </c>
       <c r="I53" t="n">
-        <v>2.54136</v>
+        <v>2.69138</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -4694,7 +4694,7 @@
         <v>1.238</v>
       </c>
       <c r="N53" t="n">
-        <v>2.50059</v>
+        <v>2.506</v>
       </c>
       <c r="O53" t="n">
         <v>1799862</v>
